--- a/biology/Zoologie/Elasmaria/Elasmaria.xlsx
+++ b/biology/Zoologie/Elasmaria/Elasmaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elasmaria est un clade éteint de dinosaures Ornithopoda connu dans les gisements du Crétacé en Amérique du Sud, en Antarctique et en Australie, qui contient de nombreux Ornithopoda bipèdes qui étaient auparavant considérés comme des « Hypsilophodontidae »[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elasmaria est un clade éteint de dinosaures Ornithopoda connu dans les gisements du Crétacé en Amérique du Sud, en Antarctique et en Australie, qui contient de nombreux Ornithopoda bipèdes qui étaient auparavant considérés comme des « Hypsilophodontidae »,.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jorge Orlando Calvo (d) et al. (2007) ont inventé Elasmaria pour accueillir Macrogryphosaurus et Talenkauen, qu'ils ont classé comme des Iguanodontia basaux distincts des autres Iguanodontia en ayant des plaques minéralisées sur les côtes[4]. En 2016, un article décrivant le genre Morrosaurus a trouvé que le clade Elasmaria était bien plus grand que son contenu initial de deux taxons, contenant plutôt une variété d'Ornithopoda de l'hémisphère sud[5]. En 2019, Matthew C. Herne et al. ont redéfini Elasmaria comme « tous les taxons plus proches de Macrogryphosaurus gondwanicus et Talenkauen santacrucensis que de Hypsilophodon foxii ou Iguanodon bernissartensis », élargissant la définition pour inclure le grand nombre de taxons qui font maintenant partie du clade[6].
-Le cladogramme ci-dessous résulte de l'analyse de Herne et al., 2019[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jorge Orlando Calvo (d) et al. (2007) ont inventé Elasmaria pour accueillir Macrogryphosaurus et Talenkauen, qu'ils ont classé comme des Iguanodontia basaux distincts des autres Iguanodontia en ayant des plaques minéralisées sur les côtes. En 2016, un article décrivant le genre Morrosaurus a trouvé que le clade Elasmaria était bien plus grand que son contenu initial de deux taxons, contenant plutôt une variété d'Ornithopoda de l'hémisphère sud. En 2019, Matthew C. Herne et al. ont redéfini Elasmaria comme « tous les taxons plus proches de Macrogryphosaurus gondwanicus et Talenkauen santacrucensis que de Hypsilophodon foxii ou Iguanodon bernissartensis », élargissant la définition pour inclure le grand nombre de taxons qui font maintenant partie du clade.
+Le cladogramme ci-dessous résulte de l'analyse de Herne et al., 2019.
 </t>
         </is>
       </c>
